--- a/TLP Info.xlsx
+++ b/TLP Info.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quisar\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="16605" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dhanmondi" sheetId="1" r:id="rId1"/>
@@ -5174,8 +5169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5526,7 +5521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5558,10 +5553,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5593,7 +5587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5769,7 +5762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5779,7 +5772,7 @@
       <selection pane="bottomRight" activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="42" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.28515625" style="42" customWidth="1" outlineLevel="1"/>
@@ -6553,7 +6546,7 @@
     <col min="16143" max="16384" width="23.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="69.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6590,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
@@ -6641,7 +6634,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
@@ -6685,7 +6678,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
@@ -6729,7 +6722,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
@@ -6773,7 +6766,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
@@ -6861,7 +6854,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
@@ -6905,7 +6898,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -6949,7 +6942,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
@@ -6993,7 +6986,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7030,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
@@ -7081,7 +7074,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>7</v>
       </c>
@@ -7125,7 +7118,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7162,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>7</v>
       </c>
@@ -7213,7 +7206,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
@@ -7257,7 +7250,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
@@ -7301,7 +7294,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
@@ -7345,7 +7338,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>7</v>
       </c>
@@ -7389,7 +7382,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>7</v>
       </c>
@@ -7433,7 +7426,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" customHeight="1">
       <c r="A21" s="34" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7470,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
@@ -7521,7 +7514,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>7</v>
       </c>
@@ -7565,7 +7558,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="34" t="s">
         <v>7</v>
       </c>
@@ -7609,7 +7602,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1">
       <c r="A25" s="34" t="s">
         <v>7</v>
       </c>
@@ -7653,7 +7646,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="34" t="s">
         <v>7</v>
       </c>
@@ -7697,7 +7690,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="34" t="s">
         <v>7</v>
       </c>
@@ -7741,7 +7734,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1">
       <c r="A28" s="34" t="s">
         <v>7</v>
       </c>
@@ -7785,7 +7778,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" customHeight="1">
       <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
@@ -7829,7 +7822,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1">
       <c r="A30" s="34" t="s">
         <v>7</v>
       </c>
@@ -7873,7 +7866,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1">
       <c r="A31" s="34" t="s">
         <v>7</v>
       </c>
@@ -7917,7 +7910,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1">
       <c r="A32" s="34" t="s">
         <v>7</v>
       </c>
@@ -7961,7 +7954,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="18" customHeight="1">
       <c r="A33" s="34" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +7998,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="18" customHeight="1">
       <c r="A34" s="34" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8042,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="18" customHeight="1">
       <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8086,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="18" customHeight="1">
       <c r="A36" s="34" t="s">
         <v>7</v>
       </c>
@@ -8137,7 +8130,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="18" customHeight="1">
       <c r="A37" s="34" t="s">
         <v>7</v>
       </c>
@@ -8181,7 +8174,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="18" customHeight="1">
       <c r="A38" s="34" t="s">
         <v>7</v>
       </c>
@@ -8225,7 +8218,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="18" customHeight="1">
       <c r="A39" s="34" t="s">
         <v>7</v>
       </c>
@@ -8269,7 +8262,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="18" customHeight="1">
       <c r="A40" s="34" t="s">
         <v>7</v>
       </c>
@@ -8313,7 +8306,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="18" customHeight="1">
       <c r="A41" s="34" t="s">
         <v>7</v>
       </c>
@@ -8357,7 +8350,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="18" customHeight="1">
       <c r="A42" s="34" t="s">
         <v>7</v>
       </c>
@@ -8401,7 +8394,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="18" customHeight="1">
       <c r="A43" s="34" t="s">
         <v>7</v>
       </c>
@@ -8445,7 +8438,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="18" customHeight="1">
       <c r="A44" s="34" t="s">
         <v>7</v>
       </c>
@@ -8489,7 +8482,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="18" customHeight="1">
       <c r="A45" s="34" t="s">
         <v>7</v>
       </c>
@@ -8533,7 +8526,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="18" customHeight="1">
       <c r="A46" s="34" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8570,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="18" customHeight="1">
       <c r="A47" s="34" t="s">
         <v>7</v>
       </c>
@@ -8621,7 +8614,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="18" customHeight="1">
       <c r="A48" s="34" t="s">
         <v>7</v>
       </c>
@@ -8665,7 +8658,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="18" customHeight="1">
       <c r="A49" s="34" t="s">
         <v>7</v>
       </c>
@@ -8709,7 +8702,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="18" customHeight="1">
       <c r="A50" s="34" t="s">
         <v>7</v>
       </c>
@@ -8753,7 +8746,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="18" customHeight="1">
       <c r="A51" s="34" t="s">
         <v>7</v>
       </c>
@@ -8797,7 +8790,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="18" customHeight="1">
       <c r="A52" s="34" t="s">
         <v>7</v>
       </c>
@@ -8841,7 +8834,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="18" customHeight="1">
       <c r="A53" s="34" t="s">
         <v>7</v>
       </c>
@@ -8885,7 +8878,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="18" customHeight="1">
       <c r="A54" s="34" t="s">
         <v>7</v>
       </c>
@@ -8929,7 +8922,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="18" customHeight="1">
       <c r="A55" s="34" t="s">
         <v>7</v>
       </c>
@@ -8973,7 +8966,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18" customHeight="1">
       <c r="A56" s="34" t="s">
         <v>7</v>
       </c>
@@ -9017,7 +9010,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="18" customHeight="1">
       <c r="A57" s="34" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9054,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="18" customHeight="1">
       <c r="A58" s="34" t="s">
         <v>7</v>
       </c>
@@ -9105,7 +9098,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="18" customHeight="1">
       <c r="A59" s="34" t="s">
         <v>7</v>
       </c>
@@ -9149,7 +9142,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="18" customHeight="1">
       <c r="A60" s="34" t="s">
         <v>7</v>
       </c>
@@ -9193,7 +9186,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="18" customHeight="1">
       <c r="A61" s="34" t="s">
         <v>7</v>
       </c>
@@ -9237,7 +9230,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18" customHeight="1">
       <c r="A62" s="34" t="s">
         <v>7</v>
       </c>
@@ -9281,7 +9274,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18" customHeight="1">
       <c r="A63" s="34" t="s">
         <v>7</v>
       </c>
@@ -9325,7 +9318,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18" customHeight="1">
       <c r="A64" s="34" t="s">
         <v>7</v>
       </c>
@@ -9369,7 +9362,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="18" customHeight="1">
       <c r="A65" s="34" t="s">
         <v>7</v>
       </c>
@@ -9413,7 +9406,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18" customHeight="1">
       <c r="A66" s="34" t="s">
         <v>7</v>
       </c>
@@ -9457,7 +9450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="18" customHeight="1">
       <c r="A67" s="34" t="s">
         <v>7</v>
       </c>
@@ -9501,7 +9494,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="18" customHeight="1">
       <c r="A68" s="34" t="s">
         <v>7</v>
       </c>
@@ -9545,7 +9538,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="18" customHeight="1">
       <c r="A69" s="34" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9582,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="18" customHeight="1">
       <c r="A70" s="34" t="s">
         <v>7</v>
       </c>
@@ -9633,7 +9626,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="18" customHeight="1">
       <c r="A71" s="34" t="s">
         <v>7</v>
       </c>
@@ -9677,7 +9670,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="18" customHeight="1">
       <c r="A72" s="34" t="s">
         <v>7</v>
       </c>
@@ -9721,7 +9714,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="18" customHeight="1">
       <c r="A73" s="34" t="s">
         <v>7</v>
       </c>
@@ -9765,7 +9758,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="18" customHeight="1">
       <c r="A74" s="34" t="s">
         <v>7</v>
       </c>
@@ -9809,7 +9802,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="18" customHeight="1">
       <c r="A75" s="34" t="s">
         <v>7</v>
       </c>
@@ -9853,7 +9846,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="34" t="s">
         <v>7</v>
       </c>
@@ -9897,7 +9890,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="18" customHeight="1">
       <c r="A77" s="34" t="s">
         <v>7</v>
       </c>
@@ -9941,7 +9934,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="34" t="s">
         <v>7</v>
       </c>
@@ -9985,7 +9978,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="18" customHeight="1">
       <c r="A79" s="34" t="s">
         <v>7</v>
       </c>
@@ -10029,7 +10022,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="18" customHeight="1">
       <c r="A80" s="34" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10066,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="18" customHeight="1">
       <c r="A81" s="34" t="s">
         <v>7</v>
       </c>
@@ -10117,7 +10110,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="18" customHeight="1">
       <c r="A82" s="34" t="s">
         <v>7</v>
       </c>
@@ -10161,7 +10154,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="18" customHeight="1">
       <c r="A83" s="34" t="s">
         <v>7</v>
       </c>
@@ -10205,7 +10198,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="18" customHeight="1">
       <c r="A84" s="34" t="s">
         <v>7</v>
       </c>
@@ -10249,7 +10242,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="18" customHeight="1">
       <c r="A85" s="34" t="s">
         <v>7</v>
       </c>
@@ -10293,7 +10286,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="18" customHeight="1">
       <c r="A86" s="34" t="s">
         <v>7</v>
       </c>
@@ -10337,7 +10330,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="18" customHeight="1">
       <c r="A87" s="34" t="s">
         <v>7</v>
       </c>
@@ -10381,7 +10374,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="18" customHeight="1">
       <c r="A88" s="34" t="s">
         <v>7</v>
       </c>
@@ -10425,7 +10418,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="18" customHeight="1">
       <c r="A89" s="34" t="s">
         <v>7</v>
       </c>
@@ -10469,7 +10462,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="18" customHeight="1">
       <c r="A90" s="34" t="s">
         <v>7</v>
       </c>
@@ -10513,7 +10506,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="18" customHeight="1">
       <c r="A91" s="34" t="s">
         <v>7</v>
       </c>
@@ -10557,7 +10550,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="18" customHeight="1">
       <c r="A92" s="34" t="s">
         <v>7</v>
       </c>
@@ -10601,7 +10594,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="18" customHeight="1">
       <c r="A93" s="34" t="s">
         <v>7</v>
       </c>
@@ -10645,7 +10638,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="18" customHeight="1">
       <c r="A94" s="34" t="s">
         <v>7</v>
       </c>
@@ -10689,7 +10682,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="18" customHeight="1">
       <c r="A95" s="34" t="s">
         <v>7</v>
       </c>
@@ -10733,7 +10726,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="18" customHeight="1">
       <c r="A96" s="34" t="s">
         <v>7</v>
       </c>
@@ -10777,7 +10770,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="18" customHeight="1">
       <c r="A97" s="34" t="s">
         <v>7</v>
       </c>
@@ -10821,7 +10814,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="18" customHeight="1">
       <c r="A98" s="34" t="s">
         <v>7</v>
       </c>
@@ -10865,7 +10858,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="18" customHeight="1">
       <c r="A99" s="34" t="s">
         <v>7</v>
       </c>
@@ -10909,7 +10902,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="18" customHeight="1">
       <c r="A100" s="34" t="s">
         <v>7</v>
       </c>
@@ -10953,7 +10946,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="18" customHeight="1">
       <c r="A101" s="34" t="s">
         <v>7</v>
       </c>
@@ -11000,7 +10993,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="18" customHeight="1">
       <c r="A102" s="34" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11037,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="18" customHeight="1">
       <c r="A103" s="34" t="s">
         <v>7</v>
       </c>
@@ -11088,7 +11081,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="18" customHeight="1">
       <c r="A104" s="34" t="s">
         <v>7</v>
       </c>
@@ -11132,7 +11125,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="18" customHeight="1">
       <c r="A105" s="34" t="s">
         <v>7</v>
       </c>
@@ -11176,7 +11169,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="18" customHeight="1">
       <c r="A106" s="34" t="s">
         <v>7</v>
       </c>
@@ -11220,7 +11213,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="18" customHeight="1">
       <c r="A107" s="34" t="s">
         <v>7</v>
       </c>
@@ -11264,7 +11257,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="18" customHeight="1">
       <c r="A108" s="34" t="s">
         <v>7</v>
       </c>
@@ -11308,7 +11301,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="18" customHeight="1">
       <c r="A109" s="34" t="s">
         <v>7</v>
       </c>
@@ -11352,7 +11345,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="18" customHeight="1">
       <c r="A110" s="34" t="s">
         <v>7</v>
       </c>
@@ -11396,7 +11389,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="18" customHeight="1">
       <c r="A111" s="34" t="s">
         <v>7</v>
       </c>
@@ -11440,7 +11433,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="18" customHeight="1">
       <c r="A112" s="34" t="s">
         <v>7</v>
       </c>
@@ -11484,7 +11477,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="18" customHeight="1">
       <c r="A113" s="34" t="s">
         <v>7</v>
       </c>
@@ -11528,7 +11521,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="18" customHeight="1">
       <c r="A114" s="34" t="s">
         <v>7</v>
       </c>
@@ -11572,7 +11565,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="18" customHeight="1">
       <c r="A115" s="34" t="s">
         <v>7</v>
       </c>
@@ -11616,7 +11609,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="18" customHeight="1">
       <c r="A116" s="34" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11653,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="18" customHeight="1">
       <c r="A117" s="34" t="s">
         <v>7</v>
       </c>
@@ -11704,7 +11697,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="18" customHeight="1">
       <c r="A118" s="34" t="s">
         <v>7</v>
       </c>
@@ -11748,7 +11741,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="18" customHeight="1">
       <c r="A119" s="34" t="s">
         <v>7</v>
       </c>
@@ -11792,7 +11785,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="18" customHeight="1">
       <c r="A120" s="34" t="s">
         <v>7</v>
       </c>
@@ -11836,7 +11829,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="18" customHeight="1">
       <c r="A121" s="34" t="s">
         <v>7</v>
       </c>
@@ -11880,7 +11873,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="18" customHeight="1">
       <c r="A122" s="34" t="s">
         <v>7</v>
       </c>
@@ -11924,7 +11917,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="18" customHeight="1">
       <c r="A123" s="34" t="s">
         <v>7</v>
       </c>
@@ -11968,7 +11961,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="18" customHeight="1">
       <c r="A124" s="34" t="s">
         <v>7</v>
       </c>
@@ -12012,7 +12005,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="18" customHeight="1">
       <c r="A125" s="34" t="s">
         <v>7</v>
       </c>
@@ -12056,7 +12049,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="18" customHeight="1">
       <c r="A126" s="34" t="s">
         <v>7</v>
       </c>
@@ -12100,7 +12093,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="18" customHeight="1">
       <c r="A127" s="34" t="s">
         <v>7</v>
       </c>
@@ -12144,7 +12137,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="18" customHeight="1">
       <c r="A128" s="34" t="s">
         <v>7</v>
       </c>
@@ -12188,7 +12181,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="18" customHeight="1">
       <c r="A129" s="34" t="s">
         <v>7</v>
       </c>
@@ -12232,7 +12225,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="18" customHeight="1">
       <c r="A130" s="34" t="s">
         <v>7</v>
       </c>
@@ -12276,7 +12269,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="18" customHeight="1">
       <c r="A131" s="34" t="s">
         <v>7</v>
       </c>
@@ -12320,7 +12313,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="18" customHeight="1">
       <c r="A132" s="34" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12357,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="18" customHeight="1">
       <c r="A133" s="34" t="s">
         <v>7</v>
       </c>
@@ -12408,7 +12401,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="18" customHeight="1">
       <c r="A134" s="34" t="s">
         <v>7</v>
       </c>
@@ -12452,7 +12445,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="18" customHeight="1">
       <c r="A135" s="34" t="s">
         <v>7</v>
       </c>
@@ -12496,7 +12489,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="18" customHeight="1">
       <c r="A136" s="34" t="s">
         <v>7</v>
       </c>
@@ -12540,7 +12533,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="18" customHeight="1">
       <c r="A137" s="34" t="s">
         <v>7</v>
       </c>
@@ -12584,7 +12577,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="18" customHeight="1">
       <c r="A138" s="34" t="s">
         <v>7</v>
       </c>
@@ -12628,7 +12621,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="18" customHeight="1">
       <c r="A139" s="34" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12665,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="18" customHeight="1">
       <c r="A140" s="34" t="s">
         <v>7</v>
       </c>
@@ -12716,7 +12709,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="18" customHeight="1">
       <c r="A141" s="34" t="s">
         <v>7</v>
       </c>
@@ -12772,14 +12765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="12.28515625" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -12799,7 +12792,7 @@
     <col min="16" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="65.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12843,7 +12836,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -12887,7 +12880,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12931,7 +12924,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -12975,7 +12968,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -13019,7 +13012,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -13063,7 +13056,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -13107,7 +13100,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -13151,7 +13144,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -13195,7 +13188,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -13239,7 +13232,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -13283,7 +13276,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -13327,7 +13320,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -13459,7 +13452,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -13503,7 +13496,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -13547,7 +13540,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -13591,7 +13584,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -13635,7 +13628,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -13679,7 +13672,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -13723,7 +13716,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -13767,7 +13760,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -13811,7 +13804,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -13855,7 +13848,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -13899,7 +13892,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -13943,7 +13936,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -13987,7 +13980,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -14031,7 +14024,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14068,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -14119,7 +14112,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -14163,7 +14156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -14207,7 +14200,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -14251,7 +14244,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -14295,7 +14288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -14339,7 +14332,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -14383,7 +14376,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -14427,7 +14420,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -14471,7 +14464,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -14515,7 +14508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -14559,7 +14552,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -14603,7 +14596,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -14647,7 +14640,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -14691,7 +14684,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -14735,7 +14728,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -14779,7 +14772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -14823,7 +14816,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -14867,7 +14860,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -14911,7 +14904,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -14955,7 +14948,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -14999,7 +14992,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -15043,7 +15036,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15080,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -15131,7 +15124,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -15175,7 +15168,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -15219,7 +15212,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -15263,7 +15256,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -15307,7 +15300,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -15351,7 +15344,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -15395,7 +15388,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -15439,7 +15432,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -15483,7 +15476,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -15527,7 +15520,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -15571,7 +15564,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15608,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -15659,7 +15652,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -15703,7 +15696,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -15747,7 +15740,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -15791,7 +15784,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -15835,7 +15828,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -15879,7 +15872,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -15923,7 +15916,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -15965,7 +15958,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16000,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -16049,7 +16042,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -16093,7 +16086,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>7</v>
       </c>
@@ -16137,7 +16130,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -16181,7 +16174,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -16225,7 +16218,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
@@ -16269,7 +16262,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
@@ -16313,7 +16306,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>7</v>
       </c>
@@ -16357,7 +16350,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
@@ -16401,7 +16394,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
@@ -16445,7 +16438,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -16489,7 +16482,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -16533,7 +16526,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -16577,7 +16570,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -16621,7 +16614,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -16665,7 +16658,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -16709,7 +16702,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -16753,7 +16746,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>7</v>
       </c>
@@ -16797,7 +16790,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -16841,7 +16834,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -16885,7 +16878,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
@@ -16929,7 +16922,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16966,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17010,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>7</v>
       </c>
@@ -17061,7 +17054,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -17105,7 +17098,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>7</v>
       </c>
@@ -17149,7 +17142,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -17193,7 +17186,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>7</v>
       </c>
@@ -17237,7 +17230,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>7</v>
       </c>
@@ -17281,7 +17274,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
@@ -17325,7 +17318,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>7</v>
       </c>
@@ -17369,7 +17362,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
@@ -17413,7 +17406,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -17457,7 +17450,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>7</v>
       </c>
@@ -17501,7 +17494,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>7</v>
       </c>
@@ -17545,7 +17538,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>7</v>
       </c>
@@ -17589,7 +17582,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
@@ -17633,7 +17626,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>7</v>
       </c>
@@ -17677,7 +17670,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
@@ -17721,7 +17714,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>7</v>
       </c>
@@ -17765,7 +17758,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
@@ -17809,7 +17802,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>7</v>
       </c>
@@ -17853,7 +17846,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>7</v>
       </c>
@@ -17897,7 +17890,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>7</v>
       </c>
@@ -17941,7 +17934,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>7</v>
       </c>
@@ -17985,7 +17978,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>7</v>
       </c>
@@ -18029,7 +18022,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>7</v>
       </c>
@@ -18073,7 +18066,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>7</v>
       </c>
@@ -18117,7 +18110,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>7</v>
       </c>
@@ -18161,7 +18154,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>7</v>
       </c>
@@ -18205,7 +18198,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>7</v>
       </c>
@@ -18249,7 +18242,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>7</v>
       </c>
@@ -18293,7 +18286,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>7</v>
       </c>
@@ -18337,7 +18330,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
@@ -18381,7 +18374,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>7</v>
       </c>
@@ -18425,7 +18418,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>7</v>
       </c>
@@ -18469,7 +18462,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>7</v>
       </c>
@@ -18513,7 +18506,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>7</v>
       </c>
@@ -18557,7 +18550,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>7</v>
       </c>
@@ -18601,7 +18594,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>7</v>
       </c>
@@ -18645,7 +18638,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>7</v>
       </c>
@@ -18689,7 +18682,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>7</v>
       </c>
@@ -18733,7 +18726,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>7</v>
       </c>
@@ -18777,7 +18770,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="61" t="s">
         <v>7</v>
       </c>
@@ -18821,7 +18814,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18859,7 @@
       </c>
       <c r="O138" s="19"/>
     </row>
-    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>7</v>
       </c>
@@ -18911,7 +18904,7 @@
       </c>
       <c r="O139" s="19"/>
     </row>
-    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>7</v>
       </c>
@@ -18956,7 +18949,7 @@
       </c>
       <c r="O140" s="19"/>
     </row>
-    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>7</v>
       </c>
@@ -19007,20 +19000,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="12.140625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="23.7109375" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.28515625" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="12.140625" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="23.7109375" style="12" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" style="12" customWidth="1"/>
@@ -19033,7 +19026,7 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="61.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -19077,7 +19070,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -19121,7 +19114,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -19165,7 +19158,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -19209,7 +19202,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -19253,7 +19246,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -19297,7 +19290,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -19341,7 +19334,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -19385,7 +19378,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -19429,7 +19422,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -19473,7 +19466,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -19517,7 +19510,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -19561,7 +19554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -19605,7 +19598,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -19649,7 +19642,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
@@ -19693,7 +19686,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -19737,7 +19730,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
@@ -19781,7 +19774,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19818,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
@@ -19869,7 +19862,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -19913,7 +19906,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
@@ -19957,7 +19950,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -20001,7 +19994,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -20045,7 +20038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -20089,7 +20082,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
@@ -20133,7 +20126,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -20177,7 +20170,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -20221,7 +20214,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -20265,7 +20258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
@@ -20309,7 +20302,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20346,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
@@ -20397,7 +20390,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -20441,7 +20434,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
@@ -20485,7 +20478,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -20529,7 +20522,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="13" t="s">
         <v>7</v>
       </c>
@@ -20573,7 +20566,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -20617,7 +20610,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
@@ -20661,7 +20654,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="13" t="s">
         <v>7</v>
       </c>
@@ -20705,7 +20698,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="13" t="s">
         <v>7</v>
       </c>
@@ -20749,7 +20742,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="13" t="s">
         <v>7</v>
       </c>
@@ -20793,7 +20786,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="13" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20830,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="13" t="s">
         <v>7</v>
       </c>
@@ -20881,7 +20874,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="13" t="s">
         <v>7</v>
       </c>
@@ -20925,7 +20918,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="13" t="s">
         <v>7</v>
       </c>
@@ -20969,7 +20962,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="13" t="s">
         <v>7</v>
       </c>
@@ -21013,7 +21006,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="13" t="s">
         <v>7</v>
       </c>
@@ -21057,7 +21050,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="13" t="s">
         <v>7</v>
       </c>
@@ -21101,7 +21094,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="13" t="s">
         <v>7</v>
       </c>
@@ -21145,7 +21138,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="71" customFormat="1">
       <c r="A49" s="68" t="s">
         <v>7</v>
       </c>
@@ -21189,7 +21182,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="71" customFormat="1">
       <c r="A50" s="68" t="s">
         <v>7</v>
       </c>
@@ -21233,7 +21226,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="71" customFormat="1">
       <c r="A51" s="68" t="s">
         <v>7</v>
       </c>
@@ -21277,7 +21270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="71" customFormat="1">
       <c r="A52" s="68" t="s">
         <v>7</v>
       </c>
@@ -21321,7 +21314,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="71" customFormat="1">
       <c r="A53" s="68" t="s">
         <v>7</v>
       </c>
@@ -21365,7 +21358,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="71" customFormat="1">
       <c r="A54" s="68" t="s">
         <v>7</v>
       </c>
@@ -21409,7 +21402,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="71" customFormat="1">
       <c r="A55" s="68" t="s">
         <v>7</v>
       </c>
@@ -21453,7 +21446,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="71" customFormat="1">
       <c r="A56" s="68" t="s">
         <v>7</v>
       </c>
@@ -21497,7 +21490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="71" customFormat="1">
       <c r="A57" s="68" t="s">
         <v>7</v>
       </c>
@@ -21541,7 +21534,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="71" customFormat="1">
       <c r="A58" s="68" t="s">
         <v>7</v>
       </c>
@@ -21585,7 +21578,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="71" customFormat="1">
       <c r="A59" s="68" t="s">
         <v>7</v>
       </c>
@@ -21629,7 +21622,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="71" customFormat="1">
       <c r="A60" s="68" t="s">
         <v>7</v>
       </c>
@@ -21673,7 +21666,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="71" customFormat="1">
       <c r="A61" s="68" t="s">
         <v>7</v>
       </c>
@@ -21717,7 +21710,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="71" customFormat="1">
       <c r="A62" s="68" t="s">
         <v>7</v>
       </c>
@@ -21761,7 +21754,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="71" customFormat="1">
       <c r="A63" s="68" t="s">
         <v>7</v>
       </c>
@@ -21805,7 +21798,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="71" customFormat="1">
       <c r="A64" s="68" t="s">
         <v>7</v>
       </c>
@@ -21849,7 +21842,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="71" customFormat="1">
       <c r="A65" s="68" t="s">
         <v>7</v>
       </c>
@@ -21893,7 +21886,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="71" customFormat="1">
       <c r="A66" s="68" t="s">
         <v>7</v>
       </c>
@@ -21937,7 +21930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="71" customFormat="1">
       <c r="A67" s="68" t="s">
         <v>7</v>
       </c>
@@ -21981,7 +21974,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="71" customFormat="1">
       <c r="A68" s="68" t="s">
         <v>7</v>
       </c>
@@ -22025,7 +22018,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="71" customFormat="1">
       <c r="A69" s="68" t="s">
         <v>7</v>
       </c>
@@ -22069,7 +22062,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="71" customFormat="1">
       <c r="A70" s="68" t="s">
         <v>7</v>
       </c>
@@ -22113,7 +22106,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="71" customFormat="1">
       <c r="A71" s="68" t="s">
         <v>7</v>
       </c>
@@ -22157,10 +22150,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:14" hidden="1"/>
+    <row r="74" spans="1:14" hidden="1"/>
+    <row r="75" spans="1:14" hidden="1"/>
+    <row r="76" spans="1:14" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
